--- a/European_Coaching/day_2/excel/task-1.xlsx
+++ b/European_Coaching/day_2/excel/task-1.xlsx
@@ -532,7 +532,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
